--- a/単語/皆の日本語ー初级1动词.xlsx
+++ b/単語/皆の日本語ー初级1动词.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1905" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="2505" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="209">
   <si>
     <t>起（お）きる</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -337,6 +337,570 @@
   </si>
   <si>
     <t>かけます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ある</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懂、明白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分かります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分（わ）かる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在、有（死物）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在、有（活物）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>います</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在、有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かかる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かかります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休（やす）む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休みます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲（つか）れる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つかれます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结婚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結婚（けっこん）する</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結婚します</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩耍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊（あそ）ぶ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊びます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迎接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迎（むか）える</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迎えます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散歩（さんぽ）する</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さんぽします</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买东西、购物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>買（か）い物（もの）する</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かいものします</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃饭、用餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食事（しょくじ）する</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食事します</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游泳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泳（およ）ぐ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泳ぎます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干、渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渇（かわ）く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空、饿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空（す）く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乾きます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>空​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>き</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ま</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>す</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待（ま）つ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持ちます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待ちます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持（も）つ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>告诉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教（おし）える</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おしえます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开（门、窗）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開（あ）ける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開けます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>話（はな）す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>話します</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下（雨、雪）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降ります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降（ふ）る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停、止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>止（と）める</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>止めます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急、急忙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急（いそ）ぐ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急ぎます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取ります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取（と）る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮忙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手伝（てつだ）う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手伝います</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>閉（し）める</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>閉めます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示、给~看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>見（み）せる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みせます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>copyする</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>コピーします</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开（空调、灯）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つけます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入（はい）る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はいります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出（で）る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出ます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关（空调、灯）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座（すわ）る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座ります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立ちます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立（た）つ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使（つか）う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使います</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消（け）す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消します</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼（よ）ぶ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼びます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住、居住</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有、在（います的敬语）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做、制造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知（し）る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知ります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住みます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住（す）む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思（おも）い出す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>０、4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思い出します</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いらっしゃいます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いらっしゃる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>置く</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -344,7 +908,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,6 +926,26 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="29"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1C1E21"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -387,11 +971,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -697,20 +1290,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.75" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -718,10 +1311,10 @@
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -735,13 +1328,13 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -755,13 +1348,13 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -775,13 +1368,13 @@
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -795,13 +1388,13 @@
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -815,13 +1408,13 @@
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -835,13 +1428,13 @@
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -855,13 +1448,13 @@
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -875,13 +1468,13 @@
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -895,13 +1488,13 @@
       <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -915,13 +1508,13 @@
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -935,13 +1528,13 @@
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -955,13 +1548,13 @@
       <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -975,13 +1568,13 @@
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -995,13 +1588,13 @@
       <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1015,13 +1608,13 @@
       <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1035,13 +1628,13 @@
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="3" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1055,13 +1648,13 @@
       <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="4" t="s">
         <v>55</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1075,13 +1668,13 @@
       <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="3" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1095,13 +1688,13 @@
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1115,13 +1708,13 @@
       <c r="C21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="4" t="s">
         <v>64</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1135,13 +1728,13 @@
       <c r="C22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="4" t="s">
         <v>67</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1155,13 +1748,13 @@
       <c r="C23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="4" t="s">
         <v>70</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1175,13 +1768,13 @@
       <c r="C24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="4" t="s">
         <v>73</v>
       </c>
       <c r="E24" s="2">
         <v>2</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1195,13 +1788,13 @@
       <c r="C25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E25" s="2">
         <v>2</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="3" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1215,19 +1808,898 @@
       <c r="C26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="4" t="s">
         <v>79</v>
       </c>
       <c r="E26" s="2">
         <v>2</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>9</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="2">
+        <v>3</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>9</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>10</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>10</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>11</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>11</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>11</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>13</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="2">
+        <v>3</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>13</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>13</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>13</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>13</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>13</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>13</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>13</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E41" s="2">
+        <v>2</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>13</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" s="2">
+        <v>2</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>13</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>14</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>14</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>14</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>14</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>14</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E48" s="2">
+        <v>2</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>14</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>14</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>14</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E51" s="2">
+        <v>2</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>14</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>14</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E53" s="2">
+        <v>3</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>14</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E54" s="2">
+        <v>2</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>14</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E55" s="2">
+        <v>2</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>14</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>14</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E57" s="2">
+        <v>2</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>14</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>14</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>14</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>14</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>14</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>14</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>14</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>15</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>15</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E66" s="2">
+        <v>1</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>15</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>15</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>15</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>15</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>15</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>15</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/単語/皆の日本語ー初级1动词.xlsx
+++ b/単語/皆の日本語ー初级1动词.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\-\単語\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="23040" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="353">
   <si>
     <t>lesson</t>
   </si>
@@ -704,18 +709,587 @@
   <si>
     <t>研究します</t>
   </si>
+  <si>
+    <t>浇、淋</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐、乘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下（车）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>参观</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>按、押、推</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>放入、插入</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>换乘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>取（钱）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿出、取出、提交</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>打电话</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上（学）、进（公司）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>出去、离开</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝（特指喝酒）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴（あ）びる</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴びます</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>乗ります</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>乗（の）る</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>降（お）りる</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>降ります</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>見学（けんがく）する</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>見学します</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>押します</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>押（お）る</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>入（い）れる</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>入れます</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>乗（の）り換（か）える</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>３、4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>乗り換えます</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下（お）ろす</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>始（はじ）める</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>始めます</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>出します</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>出（だ）す</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>おるします</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話（でんわ）する</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話します</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>入（はい）る</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>入ります</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>出（で）る</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>出ます</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>飲（の）む</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>飲みます</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>担心</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>付（钱）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>出差</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃（药）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>进、入、洗（澡）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>归还、返回</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>脱（衣服、鞋）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢失</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>记住</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>带去、拿去</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>出门、外出</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>带来、拿来</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>心配（しんぱい）する</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>心配します</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>払（はら）う</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>はらいます</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>出張（しゅっちょう）する</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>出張します</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>飲（の）む</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>飲みます</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>入ります</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘（わす）れる</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>入（はい）る</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘れます</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>返します</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>返（かえ）す</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>残業（ざんぎょう）する</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>残業します</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>脱（ぬ）ぐ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>脱ぎます</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>無（な）くす</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>なくします</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>覚（おぼ）える</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>覚えます</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>持（も）って行（い）く</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>持って行きます</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>出（で）かける</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>出かけます</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>持（も）って来（く）る</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>持って来（き）ます</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>能、会、可以</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>驾驶</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集、收藏</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹奏、弹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>换</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>唱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢弃、扔</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>预订</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>できる</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>２</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>運転（うんてん）する</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>０</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>できます</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>運転します</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>集（あつ）める</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>３</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>集めます</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>弾きます</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>弾（ひ）く</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>予約（よやく）する</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>０</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>予約します</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>換えます</t>
+  </si>
+  <si>
+    <t>換（か）える</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗（あら）う</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>０</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗います</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌（うた）う</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌います</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捨（す）てる</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捨てます</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>变成、成为</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>干杯</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登、上</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>住</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>打扫</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗衣服</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>なる</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>１</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>なります</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>乾杯します</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>乾杯（かんぱい）する</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>０</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登る｜上る</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登ります｜上ります</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>泊（と）まる</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>０</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>泊まります</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>掃除します</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>掃除（そうじ）する</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗濯（せんたく）する</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>０</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗濯します</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -737,357 +1311,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1095,253 +1345,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1356,62 +1364,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1460,7 +1437,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1495,7 +1472,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1698,30 +1675,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="K106" sqref="K106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="23.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="7" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.8888888888889" style="4" customWidth="1"/>
+    <col min="5" max="5" width="7" style="9" customWidth="1"/>
+    <col min="6" max="6" width="20.875" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1732,7 +1709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -1745,14 +1722,14 @@
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="9">
         <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -1765,14 +1742,14 @@
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="9">
         <v>0</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -1785,14 +1762,14 @@
       <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="9">
         <v>0</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1805,14 +1782,14 @@
       <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="9">
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1825,14 +1802,14 @@
       <c r="D6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="9">
         <v>0</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1845,14 +1822,14 @@
       <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="9">
         <v>0</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1865,14 +1842,14 @@
       <c r="D8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="9">
         <v>0</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1885,14 +1862,14 @@
       <c r="D9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="9">
         <v>1</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1905,14 +1882,14 @@
       <c r="D10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="9">
         <v>0</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -1925,14 +1902,14 @@
       <c r="D11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="9">
         <v>1</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>6</v>
       </c>
@@ -1945,14 +1922,14 @@
       <c r="D12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="9">
         <v>2</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>6</v>
       </c>
@@ -1965,14 +1942,14 @@
       <c r="D13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="9">
         <v>1</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>6</v>
       </c>
@@ -1985,14 +1962,14 @@
       <c r="D14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="9">
         <v>0</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>6</v>
       </c>
@@ -2005,14 +1982,14 @@
       <c r="D15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="9">
         <v>1</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>6</v>
       </c>
@@ -2025,14 +2002,14 @@
       <c r="D16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="9">
         <v>1</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>6</v>
       </c>
@@ -2045,14 +2022,14 @@
       <c r="D17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="9">
         <v>0</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>7</v>
       </c>
@@ -2065,14 +2042,14 @@
       <c r="D18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="9">
         <v>0</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>7</v>
       </c>
@@ -2085,14 +2062,14 @@
       <c r="D19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="9">
         <v>0</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>7</v>
       </c>
@@ -2105,14 +2082,14 @@
       <c r="D20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="9">
         <v>0</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>7</v>
       </c>
@@ -2125,14 +2102,14 @@
       <c r="D21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="9">
         <v>1</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>7</v>
       </c>
@@ -2145,14 +2122,14 @@
       <c r="D22" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="9">
         <v>0</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>7</v>
       </c>
@@ -2165,14 +2142,14 @@
       <c r="D23" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="9">
         <v>0</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>7</v>
       </c>
@@ -2185,14 +2162,14 @@
       <c r="D24" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="9">
         <v>2</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>7</v>
       </c>
@@ -2205,14 +2182,14 @@
       <c r="D25" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="9">
         <v>2</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>7</v>
       </c>
@@ -2225,14 +2202,14 @@
       <c r="D26" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="9">
         <v>2</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>9</v>
       </c>
@@ -2245,14 +2222,14 @@
       <c r="D27" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="9">
         <v>3</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>9</v>
       </c>
@@ -2265,14 +2242,14 @@
       <c r="D28" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="9">
         <v>1</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>10</v>
       </c>
@@ -2285,14 +2262,14 @@
       <c r="D29" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="9">
         <v>1</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>10</v>
       </c>
@@ -2305,14 +2282,14 @@
       <c r="D30" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="9">
         <v>0</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>11</v>
       </c>
@@ -2325,14 +2302,14 @@
       <c r="D31" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="9">
         <v>0</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>11</v>
       </c>
@@ -2345,14 +2322,14 @@
       <c r="D32" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="9">
         <v>2</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>11</v>
       </c>
@@ -2365,14 +2342,14 @@
       <c r="D33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="9">
         <v>2</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>13</v>
       </c>
@@ -2385,14 +2362,14 @@
       <c r="D34" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="9">
         <v>3</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>13</v>
       </c>
@@ -2405,14 +2382,14 @@
       <c r="D35" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="9">
         <v>0</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>13</v>
       </c>
@@ -2425,14 +2402,14 @@
       <c r="D36" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="9">
         <v>0</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>13</v>
       </c>
@@ -2445,14 +2422,14 @@
       <c r="D37" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="9">
         <v>0</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>13</v>
       </c>
@@ -2465,14 +2442,14 @@
       <c r="D38" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="9">
         <v>0</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>13</v>
       </c>
@@ -2485,14 +2462,14 @@
       <c r="D39" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="9">
         <v>0</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>13</v>
       </c>
@@ -2505,14 +2482,14 @@
       <c r="D40" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="9">
         <v>0</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>13</v>
       </c>
@@ -2525,14 +2502,14 @@
       <c r="D41" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="9">
         <v>2</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>13</v>
       </c>
@@ -2545,14 +2522,14 @@
       <c r="D42" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="9">
         <v>2</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>13</v>
       </c>
@@ -2565,14 +2542,14 @@
       <c r="D43" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="9">
         <v>0</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>14</v>
       </c>
@@ -2585,14 +2562,14 @@
       <c r="D44" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="9">
         <v>1</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>14</v>
       </c>
@@ -2605,14 +2582,14 @@
       <c r="D45" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="9">
         <v>1</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>14</v>
       </c>
@@ -2625,14 +2602,14 @@
       <c r="D46" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="9">
         <v>0</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>14</v>
       </c>
@@ -2645,14 +2622,14 @@
       <c r="D47" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="9">
         <v>0</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>14</v>
       </c>
@@ -2665,14 +2642,14 @@
       <c r="D48" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="9">
         <v>2</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>14</v>
       </c>
@@ -2685,14 +2662,14 @@
       <c r="D49" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="9">
         <v>1</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>14</v>
       </c>
@@ -2705,14 +2682,14 @@
       <c r="D50" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="9">
         <v>1</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>14</v>
       </c>
@@ -2725,14 +2702,14 @@
       <c r="D51" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="9">
         <v>2</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>14</v>
       </c>
@@ -2745,14 +2722,14 @@
       <c r="D52" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="9">
         <v>1</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>14</v>
       </c>
@@ -2765,14 +2742,14 @@
       <c r="D53" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="9">
         <v>3</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>14</v>
       </c>
@@ -2785,14 +2762,14 @@
       <c r="D54" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="9">
         <v>2</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>14</v>
       </c>
@@ -2805,14 +2782,14 @@
       <c r="D55" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="9">
         <v>2</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>14</v>
       </c>
@@ -2825,14 +2802,14 @@
       <c r="D56" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="9">
         <v>1</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>14</v>
       </c>
@@ -2845,14 +2822,14 @@
       <c r="D57" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="9">
         <v>2</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>14</v>
       </c>
@@ -2865,14 +2842,14 @@
       <c r="D58" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" s="9">
         <v>1</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>14</v>
       </c>
@@ -2885,14 +2862,14 @@
       <c r="D59" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" s="9">
         <v>1</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>14</v>
       </c>
@@ -2905,14 +2882,14 @@
       <c r="D60" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" s="9">
         <v>0</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>14</v>
       </c>
@@ -2925,14 +2902,14 @@
       <c r="D61" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61" s="9">
         <v>1</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>14</v>
       </c>
@@ -2945,14 +2922,14 @@
       <c r="D62" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="9">
         <v>0</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>14</v>
       </c>
@@ -2965,14 +2942,14 @@
       <c r="D63" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="9">
         <v>0</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>14</v>
       </c>
@@ -2985,14 +2962,14 @@
       <c r="D64" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="9">
         <v>0</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>15</v>
       </c>
@@ -3005,14 +2982,14 @@
       <c r="D65" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65" s="9">
         <v>0</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>15</v>
       </c>
@@ -3025,14 +3002,14 @@
       <c r="D66" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="9">
         <v>1</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>15</v>
       </c>
@@ -3045,14 +3022,14 @@
       <c r="D67" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" s="9" t="s">
         <v>195</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>15</v>
       </c>
@@ -3069,7 +3046,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>15</v>
       </c>
@@ -3082,14 +3059,14 @@
       <c r="D69" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69" s="9">
         <v>0</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>15</v>
       </c>
@@ -3102,14 +3079,14 @@
       <c r="D70" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70" s="9">
         <v>0</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>15</v>
       </c>
@@ -3122,14 +3099,14 @@
       <c r="D71" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71" s="9">
         <v>2</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>15</v>
       </c>
@@ -3142,16 +3119,876 @@
       <c r="D72" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E72" s="9">
         <v>0</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>211</v>
       </c>
     </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>16</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E73" s="10">
+        <v>0</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>16</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E74" s="10">
+        <v>0</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>16</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E75" s="9">
+        <v>2</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>16</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E76" s="10">
+        <v>0</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>16</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E77" s="10">
+        <v>0</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>16</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E78" s="10">
+        <v>0</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>16</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>16</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E80" s="9">
+        <v>2</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>16</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E81" s="10">
+        <v>0</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>16</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E82" s="9">
+        <v>1</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>16</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E83" s="10">
+        <v>0</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>16</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="E84" s="9">
+        <v>1</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>16</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E85" s="9">
+        <v>1</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>16</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E86" s="9">
+        <v>1</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>17</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E87" s="10">
+        <v>0</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>17</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="E88" s="9">
+        <v>2</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>17</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E89" s="10">
+        <v>0</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>17</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E90" s="9">
+        <v>1</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>17</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E91" s="9">
+        <v>1</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>17</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E92" s="10">
+        <v>0</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>17</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="E93" s="10">
+        <v>0</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>17</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E94" s="10">
+        <v>0</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>17</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E95" s="9">
+        <v>1</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>17</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="E96" s="10">
+        <v>0</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>17</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="E97" s="10">
+        <v>3</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>17</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>17</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="E99" s="10">
+        <v>0</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>17</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>18</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>18</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>18</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>18</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>18</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>18</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>18</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>18</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>18</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>19</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>19</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>19</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>19</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>19</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>19</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/単語/皆の日本語ー初级1动词.xlsx
+++ b/単語/皆の日本語ー初级1动词.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="23040" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="23040" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -398,6 +398,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>空​</t>
@@ -407,6 +408,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>き</t>
@@ -416,6 +418,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>​</t>
@@ -425,6 +428,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ま</t>
@@ -434,6 +438,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>​</t>
@@ -443,6 +448,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>す</t>
@@ -638,27 +644,18 @@
     <t>知道</t>
   </si>
   <si>
-    <t>知（し）る</t>
-  </si>
-  <si>
     <t>知ります</t>
   </si>
   <si>
     <t>住、居住</t>
   </si>
   <si>
-    <t>住（す）む</t>
-  </si>
-  <si>
     <t>住みます</t>
   </si>
   <si>
     <t>想起</t>
   </si>
   <si>
-    <t>思（おも）い出す</t>
-  </si>
-  <si>
     <t>０、4</t>
   </si>
   <si>
@@ -668,45 +665,30 @@
     <t>有、在（います的敬语）</t>
   </si>
   <si>
-    <t>いらっしゃる</t>
-  </si>
-  <si>
     <t>いらっしゃいます</t>
   </si>
   <si>
     <t>放</t>
   </si>
   <si>
-    <t>置（お）く</t>
-  </si>
-  <si>
     <t>置きます</t>
   </si>
   <si>
     <t>卖</t>
   </si>
   <si>
-    <t>売（お）る</t>
-  </si>
-  <si>
     <t>売ります</t>
   </si>
   <si>
     <t>做、制造</t>
   </si>
   <si>
-    <t>作（つく）る｜造る</t>
-  </si>
-  <si>
     <t>作ります｜造ります</t>
   </si>
   <si>
     <t>研究</t>
   </si>
   <si>
-    <t>研究（けんきゅう）する</t>
-  </si>
-  <si>
     <t>研究します</t>
   </si>
   <si>
@@ -782,10 +764,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>降（お）りる</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>降ります</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -846,19 +824,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>おるします</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>電話（でんわ）する</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>電話します</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>入（はい）る</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1282,6 +1252,50 @@
   </si>
   <si>
     <t>洗濯します</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>知（し）る</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>住（す）む</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>思（おも）い出す</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>いらっしゃる</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>置（お）く</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>売（お）る</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>作（つく）る｜造る</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究（けんきゅう）する</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>入（はい）る</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>降（お）りる</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下ろします</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1301,23 +1315,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF1C1E21"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1683,8 +1701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="K106" sqref="K106"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2980,13 +2998,13 @@
         <v>15</v>
       </c>
       <c r="D65" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E65" s="9">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="E65" s="9">
-        <v>0</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2994,19 +3012,19 @@
         <v>15</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>191</v>
+        <v>343</v>
       </c>
       <c r="E66" s="9">
         <v>1</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -3014,19 +3032,19 @@
         <v>15</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F67" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -3034,16 +3052,16 @@
         <v>15</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>198</v>
+        <v>345</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -3051,19 +3069,19 @@
         <v>15</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>201</v>
+        <v>346</v>
       </c>
       <c r="E69" s="9">
         <v>0</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -3071,19 +3089,19 @@
         <v>15</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>204</v>
+        <v>347</v>
       </c>
       <c r="E70" s="9">
         <v>0</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -3091,19 +3109,19 @@
         <v>15</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>207</v>
+        <v>348</v>
       </c>
       <c r="E71" s="9">
         <v>2</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -3111,19 +3129,19 @@
         <v>15</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>210</v>
+        <v>349</v>
       </c>
       <c r="E72" s="9">
         <v>0</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -3131,19 +3149,19 @@
         <v>16</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D73" s="7" t="s">
-        <v>226</v>
+      <c r="D73" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="E73" s="10">
         <v>0</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -3151,19 +3169,19 @@
         <v>16</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D74" s="7" t="s">
-        <v>229</v>
+      <c r="D74" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="E74" s="10">
         <v>0</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -3171,19 +3189,19 @@
         <v>16</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D75" s="7" t="s">
-        <v>230</v>
+      <c r="D75" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="E75" s="9">
         <v>2</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -3191,19 +3209,19 @@
         <v>16</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D76" s="7" t="s">
-        <v>232</v>
+      <c r="D76" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="E76" s="10">
         <v>0</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -3211,19 +3229,19 @@
         <v>16</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="E77" s="10">
         <v>0</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -3231,19 +3249,19 @@
         <v>16</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D78" s="7" t="s">
-        <v>236</v>
+      <c r="D78" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="E78" s="10">
         <v>0</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -3251,19 +3269,19 @@
         <v>16</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D79" s="7" t="s">
-        <v>238</v>
+      <c r="D79" s="3" t="s">
+        <v>229</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -3271,19 +3289,19 @@
         <v>16</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D80" s="7" t="s">
-        <v>241</v>
+      <c r="D80" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="E80" s="9">
         <v>2</v>
       </c>
-      <c r="F80" s="8" t="s">
-        <v>246</v>
+      <c r="F80" s="4" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -3291,19 +3309,19 @@
         <v>16</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D81" s="7" t="s">
-        <v>242</v>
+      <c r="D81" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="E81" s="10">
         <v>0</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -3311,19 +3329,19 @@
         <v>16</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D82" s="7" t="s">
-        <v>245</v>
+      <c r="D82" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="E82" s="9">
         <v>1</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -3331,19 +3349,19 @@
         <v>16</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D83" s="7" t="s">
-        <v>247</v>
+      <c r="D83" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="E83" s="10">
         <v>0</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -3351,19 +3369,19 @@
         <v>16</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D84" s="7" t="s">
-        <v>249</v>
+      <c r="D84" s="3" t="s">
+        <v>350</v>
       </c>
       <c r="E84" s="9">
         <v>1</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -3371,19 +3389,19 @@
         <v>16</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="E85" s="9">
         <v>1</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -3391,19 +3409,19 @@
         <v>16</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D86" s="7" t="s">
-        <v>253</v>
+      <c r="D86" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="E86" s="9">
         <v>1</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -3411,19 +3429,19 @@
         <v>17</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="E87" s="10">
         <v>0</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -3431,19 +3449,19 @@
         <v>17</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="E88" s="9">
         <v>2</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -3451,19 +3469,19 @@
         <v>17</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="E89" s="10">
         <v>0</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -3471,19 +3489,19 @@
         <v>17</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="E90" s="9">
         <v>1</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -3491,19 +3509,19 @@
         <v>17</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="E91" s="9">
         <v>1</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -3511,19 +3529,19 @@
         <v>17</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="E92" s="10">
         <v>0</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -3531,19 +3549,19 @@
         <v>17</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="E93" s="10">
         <v>0</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -3551,19 +3569,19 @@
         <v>17</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="E94" s="10">
         <v>0</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -3571,19 +3589,19 @@
         <v>17</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="E95" s="9">
         <v>1</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -3591,19 +3609,19 @@
         <v>17</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="E96" s="10">
         <v>0</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -3611,19 +3629,19 @@
         <v>17</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="E97" s="10">
         <v>3</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -3631,19 +3649,19 @@
         <v>17</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -3651,19 +3669,19 @@
         <v>17</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E99" s="10">
         <v>0</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -3671,19 +3689,19 @@
         <v>17</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -3691,19 +3709,19 @@
         <v>18</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -3711,19 +3729,19 @@
         <v>18</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -3731,19 +3749,19 @@
         <v>18</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -3751,19 +3769,19 @@
         <v>18</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -3771,19 +3789,19 @@
         <v>18</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -3791,19 +3809,19 @@
         <v>18</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="E106" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="F106" s="4" t="s">
         <v>311</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -3811,19 +3829,19 @@
         <v>18</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -3831,19 +3849,19 @@
         <v>18</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -3851,19 +3869,19 @@
         <v>18</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -3871,19 +3889,19 @@
         <v>19</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -3891,19 +3909,19 @@
         <v>19</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -3911,19 +3929,19 @@
         <v>19</v>
       </c>
       <c r="B112" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="F112" s="8" t="s">
         <v>333</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="E112" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="F112" s="8" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -3931,19 +3949,19 @@
         <v>19</v>
       </c>
       <c r="B113" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>345</v>
-      </c>
       <c r="E113" s="10" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -3951,19 +3969,19 @@
         <v>19</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -3971,19 +3989,19 @@
         <v>19</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>

--- a/単語/皆の日本語ー初级1动词.xlsx
+++ b/単語/皆の日本語ー初级1动词.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="23040" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="23040" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="365">
   <si>
     <t>lesson</t>
   </si>
   <si>
-    <t>原型</t>
-  </si>
-  <si>
     <t>ます型</t>
   </si>
   <si>
@@ -85,9 +82,6 @@
   </si>
   <si>
     <t>去</t>
-  </si>
-  <si>
-    <t>行（い）る</t>
   </si>
   <si>
     <t>行きます</t>
@@ -1296,6 +1290,62 @@
   </si>
   <si>
     <t>下ろします</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查、调查</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>要</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>３</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>調べます</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>調（しら）べる</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>０</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>要（い）る</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>要（い）ります</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理（しゅうり）する</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>１</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理します</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>行（い）く</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>简体</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1699,10 +1749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1721,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1732,19 +1782,19 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="E2" s="9">
         <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1752,19 +1802,19 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" s="9">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1772,19 +1822,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1792,19 +1842,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="E5" s="9">
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1812,19 +1862,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1832,19 +1882,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1852,19 +1902,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1872,19 +1922,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9" s="9">
         <v>1</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1892,19 +1942,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1912,19 +1962,19 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" s="9">
         <v>1</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1932,19 +1982,19 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E12" s="9">
         <v>2</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1952,19 +2002,19 @@
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E13" s="9">
         <v>1</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1972,19 +2022,19 @@
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1992,19 +2042,19 @@
         <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E15" s="9">
         <v>1</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -2012,19 +2062,19 @@
         <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E16" s="9">
         <v>1</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -2032,19 +2082,19 @@
         <v>6</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -2052,19 +2102,19 @@
         <v>7</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="9">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -2072,19 +2122,19 @@
         <v>7</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="9">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -2092,19 +2142,19 @@
         <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="9">
-        <v>0</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -2112,19 +2162,19 @@
         <v>7</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E21" s="9">
         <v>1</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -2132,19 +2182,19 @@
         <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="9">
-        <v>0</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -2152,19 +2202,19 @@
         <v>7</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="9">
-        <v>0</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -2172,19 +2222,19 @@
         <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E24" s="9">
         <v>2</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2192,19 +2242,19 @@
         <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E25" s="9">
         <v>2</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2212,19 +2262,19 @@
         <v>7</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E26" s="9">
         <v>2</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -2232,19 +2282,19 @@
         <v>9</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E27" s="9">
         <v>3</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2252,19 +2302,19 @@
         <v>9</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E28" s="9">
         <v>1</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -2272,19 +2322,19 @@
         <v>10</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E29" s="9">
         <v>1</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -2292,19 +2342,19 @@
         <v>10</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="9">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E30" s="9">
-        <v>0</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -2312,19 +2362,19 @@
         <v>11</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E31" s="9">
         <v>0</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -2332,19 +2382,19 @@
         <v>11</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E32" s="9">
         <v>2</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -2352,19 +2402,19 @@
         <v>11</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="E33" s="9">
         <v>2</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -2372,19 +2422,19 @@
         <v>13</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E34" s="9">
         <v>3</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -2392,19 +2442,19 @@
         <v>13</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E35" s="9">
-        <v>0</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -2412,19 +2462,19 @@
         <v>13</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E36" s="9">
-        <v>0</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2432,19 +2482,19 @@
         <v>13</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" s="9">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E37" s="9">
-        <v>0</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2452,19 +2502,19 @@
         <v>13</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" s="9">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E38" s="9">
-        <v>0</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2472,19 +2522,19 @@
         <v>13</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" s="9">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E39" s="9">
-        <v>0</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2492,19 +2542,19 @@
         <v>13</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E40" s="9">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E40" s="9">
-        <v>0</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2512,19 +2562,19 @@
         <v>13</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E41" s="9">
         <v>2</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2532,19 +2582,19 @@
         <v>13</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E42" s="9">
         <v>2</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2552,19 +2602,19 @@
         <v>13</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" s="9">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E43" s="9">
-        <v>0</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2572,19 +2622,19 @@
         <v>14</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E44" s="9">
         <v>1</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2592,19 +2642,19 @@
         <v>14</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E45" s="9">
         <v>1</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2612,19 +2662,19 @@
         <v>14</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E46" s="9">
         <v>0</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2632,19 +2682,19 @@
         <v>14</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" s="9">
+        <v>0</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E47" s="9">
-        <v>0</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2652,19 +2702,19 @@
         <v>14</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E48" s="9">
         <v>2</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2672,19 +2722,19 @@
         <v>14</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E49" s="9">
         <v>1</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2692,19 +2742,19 @@
         <v>14</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E50" s="9">
         <v>1</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2712,19 +2762,19 @@
         <v>14</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E51" s="9">
         <v>2</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2732,19 +2782,19 @@
         <v>14</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E52" s="9">
         <v>1</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2752,19 +2802,19 @@
         <v>14</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E53" s="9">
         <v>3</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2772,19 +2822,19 @@
         <v>14</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E54" s="9">
         <v>2</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2792,19 +2842,19 @@
         <v>14</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E55" s="9">
         <v>2</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2812,19 +2862,19 @@
         <v>14</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E56" s="9">
         <v>1</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2832,19 +2882,19 @@
         <v>14</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E57" s="9">
         <v>2</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2852,19 +2902,19 @@
         <v>14</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E58" s="9">
         <v>1</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2872,19 +2922,19 @@
         <v>14</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E59" s="9">
         <v>1</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2892,19 +2942,19 @@
         <v>14</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E60" s="9">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E60" s="9">
-        <v>0</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2912,19 +2962,19 @@
         <v>14</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E61" s="9">
         <v>1</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2932,19 +2982,19 @@
         <v>14</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E62" s="9">
+        <v>0</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E62" s="9">
-        <v>0</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2952,19 +3002,19 @@
         <v>14</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E63" s="9">
+        <v>0</v>
+      </c>
+      <c r="F63" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E63" s="9">
-        <v>0</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2972,19 +3022,19 @@
         <v>14</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E64" s="9">
+        <v>0</v>
+      </c>
+      <c r="F64" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E64" s="9">
-        <v>0</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2992,19 +3042,19 @@
         <v>15</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E65" s="9">
         <v>0</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -3012,19 +3062,19 @@
         <v>15</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E66" s="9">
         <v>1</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -3032,19 +3082,19 @@
         <v>15</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="F67" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -3052,16 +3102,16 @@
         <v>15</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -3069,19 +3119,19 @@
         <v>15</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E69" s="9">
         <v>0</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -3089,19 +3139,19 @@
         <v>15</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E70" s="9">
         <v>0</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -3109,19 +3159,19 @@
         <v>15</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E71" s="9">
         <v>2</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -3129,19 +3179,19 @@
         <v>15</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E72" s="9">
         <v>0</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -3149,19 +3199,19 @@
         <v>16</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E73" s="10">
         <v>0</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -3169,19 +3219,19 @@
         <v>16</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E74" s="10">
         <v>0</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -3189,19 +3239,19 @@
         <v>16</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E75" s="9">
         <v>2</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -3209,19 +3259,19 @@
         <v>16</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E76" s="10">
         <v>0</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -3229,19 +3279,19 @@
         <v>16</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E77" s="10">
         <v>0</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -3249,19 +3299,19 @@
         <v>16</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E78" s="10">
         <v>0</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -3269,19 +3319,19 @@
         <v>16</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F79" s="8" t="s">
         <v>229</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -3289,19 +3339,19 @@
         <v>16</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E80" s="9">
         <v>2</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -3309,19 +3359,19 @@
         <v>16</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E81" s="10">
         <v>0</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -3329,19 +3379,19 @@
         <v>16</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E82" s="9">
         <v>1</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -3349,19 +3399,19 @@
         <v>16</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E83" s="10">
         <v>0</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -3369,19 +3419,19 @@
         <v>16</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E84" s="9">
         <v>1</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -3389,19 +3439,19 @@
         <v>16</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E85" s="9">
         <v>1</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -3409,19 +3459,19 @@
         <v>16</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E86" s="9">
         <v>1</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -3429,19 +3479,19 @@
         <v>17</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E87" s="10">
         <v>0</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -3449,19 +3499,19 @@
         <v>17</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E88" s="9">
         <v>2</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -3469,19 +3519,19 @@
         <v>17</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E89" s="10">
         <v>0</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -3489,19 +3539,19 @@
         <v>17</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E90" s="9">
         <v>1</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -3509,19 +3559,19 @@
         <v>17</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E91" s="9">
         <v>1</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -3529,19 +3579,19 @@
         <v>17</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E92" s="10">
+        <v>0</v>
+      </c>
+      <c r="F92" s="8" t="s">
         <v>267</v>
-      </c>
-      <c r="E92" s="10">
-        <v>0</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -3549,19 +3599,19 @@
         <v>17</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E93" s="10">
         <v>0</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -3569,19 +3619,19 @@
         <v>17</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E94" s="10">
         <v>0</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -3589,19 +3639,19 @@
         <v>17</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E95" s="9">
         <v>1</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -3609,19 +3659,19 @@
         <v>17</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E96" s="10">
         <v>0</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -3629,19 +3679,19 @@
         <v>17</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E97" s="10">
         <v>3</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -3649,19 +3699,19 @@
         <v>17</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -3669,19 +3719,19 @@
         <v>17</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E99" s="10">
         <v>0</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -3689,19 +3739,19 @@
         <v>17</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E100" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="F100" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -3709,19 +3759,19 @@
         <v>18</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -3729,19 +3779,19 @@
         <v>18</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E102" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="F102" s="8" t="s">
         <v>300</v>
-      </c>
-      <c r="F102" s="8" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -3749,19 +3799,19 @@
         <v>18</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D103" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="F103" s="8" t="s">
         <v>303</v>
-      </c>
-      <c r="E103" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="F103" s="8" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -3769,19 +3819,19 @@
         <v>18</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -3789,19 +3839,19 @@
         <v>18</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D105" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="F105" s="8" t="s">
         <v>308</v>
-      </c>
-      <c r="E105" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="F105" s="8" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -3809,19 +3859,19 @@
         <v>18</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -3829,19 +3879,19 @@
         <v>18</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D107" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="F107" s="8" t="s">
         <v>313</v>
-      </c>
-      <c r="E107" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="F107" s="8" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -3849,19 +3899,19 @@
         <v>18</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -3869,19 +3919,19 @@
         <v>18</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -3889,19 +3939,19 @@
         <v>19</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D110" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="F110" s="8" t="s">
         <v>326</v>
-      </c>
-      <c r="E110" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="F110" s="8" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -3909,19 +3959,19 @@
         <v>19</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -3929,19 +3979,19 @@
         <v>19</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E112" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="F112" s="8" t="s">
         <v>331</v>
-      </c>
-      <c r="F112" s="8" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -3949,19 +3999,19 @@
         <v>19</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D113" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="F113" s="8" t="s">
         <v>334</v>
-      </c>
-      <c r="E113" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="F113" s="8" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -3969,19 +4019,19 @@
         <v>19</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -3989,19 +4039,79 @@
         <v>19</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D115" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="F115" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="E115" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="F115" s="8" t="s">
-        <v>341</v>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>20</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>20</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>20</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>362</v>
       </c>
     </row>
   </sheetData>
